--- a/week 7/فارسی/Skale(V3.6).xlsx
+++ b/week 7/فارسی/Skale(V3.6).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="گوگل" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="67">
   <si>
     <t>نام</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>کلید</t>
+  </si>
+  <si>
+    <t>محمدکیان ولکجی</t>
   </si>
 </sst>
 </file>
@@ -675,6 +678,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,9 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1419,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1469,27 +1472,53 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="A2" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="44">
+        <v>1038</v>
+      </c>
+      <c r="C2" s="44">
+        <v>4</v>
+      </c>
       <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="E2" s="44">
+        <v>2</v>
+      </c>
+      <c r="F2" s="44">
+        <v>2</v>
+      </c>
+      <c r="G2" s="44">
+        <v>3</v>
+      </c>
+      <c r="H2" s="44">
+        <v>3</v>
+      </c>
+      <c r="I2" s="44">
+        <v>3</v>
+      </c>
+      <c r="J2" s="44">
+        <v>2</v>
+      </c>
+      <c r="K2" s="44">
+        <v>4</v>
+      </c>
+      <c r="L2" s="44">
+        <v>3</v>
+      </c>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="A3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="44">
+        <v>1020</v>
+      </c>
+      <c r="C3" s="45"/>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
-      <c r="F3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
@@ -1498,289 +1527,625 @@
       <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="A4" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="44">
+        <v>1022</v>
+      </c>
+      <c r="C4" s="44">
+        <v>4</v>
+      </c>
+      <c r="D4" s="44">
+        <v>1</v>
+      </c>
+      <c r="E4" s="44">
+        <v>2</v>
+      </c>
+      <c r="F4" s="44">
+        <v>2</v>
+      </c>
+      <c r="G4" s="44">
+        <v>3</v>
+      </c>
+      <c r="H4" s="44">
+        <v>3</v>
+      </c>
+      <c r="I4" s="44">
+        <v>2</v>
+      </c>
+      <c r="J4" s="44">
+        <v>4</v>
+      </c>
+      <c r="K4" s="44">
+        <v>1</v>
+      </c>
+      <c r="L4" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="A5" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1011</v>
+      </c>
+      <c r="C5" s="44">
+        <v>1</v>
+      </c>
+      <c r="D5" s="44">
+        <v>4</v>
+      </c>
+      <c r="E5" s="44">
+        <v>2</v>
+      </c>
+      <c r="F5" s="44">
+        <v>2</v>
+      </c>
+      <c r="G5" s="44">
+        <v>1</v>
+      </c>
+      <c r="H5" s="44">
+        <v>4</v>
+      </c>
+      <c r="I5" s="44">
+        <v>2</v>
+      </c>
+      <c r="J5" s="44">
+        <v>1</v>
+      </c>
+      <c r="K5" s="45"/>
+      <c r="L5" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="A6" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1014</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="44">
+        <v>1</v>
+      </c>
+      <c r="E6" s="44">
+        <v>4</v>
+      </c>
+      <c r="F6" s="44">
+        <v>2</v>
+      </c>
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="I6" s="44">
+        <v>3</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="A7" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1030</v>
+      </c>
+      <c r="C7" s="45"/>
       <c r="D7" s="45"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="44">
+        <v>2</v>
+      </c>
       <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="H7" s="44">
+        <v>3</v>
+      </c>
+      <c r="I7" s="44">
+        <v>3</v>
+      </c>
+      <c r="J7" s="44">
+        <v>4</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="A8" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1029</v>
+      </c>
+      <c r="C8" s="44">
+        <v>3</v>
+      </c>
+      <c r="D8" s="44">
+        <v>4</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="44">
+        <v>2</v>
+      </c>
+      <c r="G8" s="44">
+        <v>2</v>
+      </c>
+      <c r="H8" s="44">
+        <v>2</v>
+      </c>
+      <c r="I8" s="44">
+        <v>1</v>
+      </c>
+      <c r="J8" s="44">
+        <v>3</v>
+      </c>
+      <c r="K8" s="45"/>
+      <c r="L8" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
+      <c r="A9" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="44">
+        <v>1026</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="44">
+        <v>1</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="44">
+        <v>2</v>
+      </c>
+      <c r="G9" s="44">
+        <v>3</v>
+      </c>
+      <c r="H9" s="44">
+        <v>4</v>
+      </c>
+      <c r="I9" s="44">
+        <v>2</v>
+      </c>
+      <c r="J9" s="44">
+        <v>4</v>
+      </c>
+      <c r="K9" s="45"/>
       <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="44"/>
+      <c r="A10" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="44">
+        <v>1015</v>
+      </c>
+      <c r="C10" s="44">
+        <v>3</v>
+      </c>
+      <c r="D10" s="44">
+        <v>1</v>
+      </c>
+      <c r="E10" s="44">
+        <v>3</v>
+      </c>
+      <c r="F10" s="44">
+        <v>2</v>
+      </c>
+      <c r="G10" s="44">
+        <v>2</v>
+      </c>
+      <c r="H10" s="44">
+        <v>4</v>
+      </c>
+      <c r="I10" s="44">
+        <v>2</v>
+      </c>
+      <c r="J10" s="44">
+        <v>3</v>
+      </c>
+      <c r="K10" s="44">
+        <v>2</v>
+      </c>
+      <c r="L10" s="44">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="44"/>
+      <c r="A11" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="44">
+        <v>3</v>
+      </c>
+      <c r="D11" s="44">
+        <v>3</v>
+      </c>
+      <c r="E11" s="44">
+        <v>1</v>
+      </c>
+      <c r="F11" s="44">
+        <v>2</v>
+      </c>
+      <c r="G11" s="44">
+        <v>2</v>
+      </c>
+      <c r="H11" s="44">
+        <v>4</v>
+      </c>
+      <c r="I11" s="44">
+        <v>2</v>
+      </c>
+      <c r="J11" s="44">
+        <v>4</v>
+      </c>
+      <c r="K11" s="44">
+        <v>3</v>
+      </c>
+      <c r="L11" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
+      <c r="A12" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="44">
+        <v>1012</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="44">
+        <v>4</v>
+      </c>
       <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="F12" s="44">
+        <v>2</v>
+      </c>
+      <c r="G12" s="44">
+        <v>4</v>
+      </c>
+      <c r="H12" s="44">
+        <v>4</v>
+      </c>
+      <c r="I12" s="44">
+        <v>2</v>
+      </c>
       <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
+      <c r="K12" s="44">
+        <v>1</v>
+      </c>
+      <c r="L12" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="A13" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="44">
+        <v>1005</v>
+      </c>
+      <c r="C13" s="44">
+        <v>2</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="44">
+        <v>1</v>
+      </c>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="44">
+        <v>3</v>
+      </c>
       <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
+      <c r="J13" s="44">
+        <v>4</v>
+      </c>
+      <c r="K13" s="44">
+        <v>3</v>
+      </c>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
+      <c r="A14" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="44">
+        <v>1013</v>
+      </c>
+      <c r="C14" s="44">
+        <v>1</v>
+      </c>
+      <c r="D14" s="44">
+        <v>4</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="44">
+        <v>2</v>
+      </c>
+      <c r="G14" s="44">
+        <v>2</v>
+      </c>
       <c r="H14" s="45"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="44"/>
+      <c r="I14" s="44">
+        <v>2</v>
+      </c>
+      <c r="J14" s="44">
+        <v>2</v>
+      </c>
+      <c r="K14" s="44">
+        <v>2</v>
+      </c>
+      <c r="L14" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
     </row>
     <row r="16" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
+      <c r="A16" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="44">
+        <v>1035</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44">
+        <v>4</v>
+      </c>
+      <c r="E16" s="44">
+        <v>2</v>
+      </c>
+      <c r="F16" s="44">
+        <v>2</v>
+      </c>
+      <c r="G16" s="44">
+        <v>3</v>
+      </c>
+      <c r="H16" s="44">
+        <v>3</v>
+      </c>
+      <c r="I16" s="44">
+        <v>2</v>
+      </c>
+      <c r="J16" s="44">
+        <v>4</v>
+      </c>
+      <c r="K16" s="44">
+        <v>2</v>
+      </c>
+      <c r="L16" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
+      <c r="A17" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="44">
+        <v>1018</v>
+      </c>
+      <c r="C17" s="44">
+        <v>4</v>
+      </c>
+      <c r="D17" s="44">
+        <v>4</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44">
+        <v>2</v>
+      </c>
+      <c r="G17" s="44">
+        <v>3</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
       <c r="K17" s="45"/>
-      <c r="L17" s="44"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
+      <c r="A18" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="44">
+        <v>1037</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="44"/>
+      <c r="G18" s="44">
+        <v>1</v>
+      </c>
+      <c r="H18" s="45"/>
       <c r="I18" s="45"/>
       <c r="J18" s="45"/>
-      <c r="K18" s="44"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
+      <c r="A19" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="44">
+        <v>1021</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="44">
+        <v>3</v>
+      </c>
+      <c r="H19" s="44">
+        <v>3</v>
+      </c>
+      <c r="I19" s="44">
+        <v>2</v>
+      </c>
+      <c r="J19" s="44">
+        <v>4</v>
+      </c>
       <c r="K19" s="45"/>
       <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="44"/>
+      <c r="A20" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="44">
+        <v>1036</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="44">
+        <v>2</v>
+      </c>
+      <c r="G20" s="44">
+        <v>3</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="44">
+        <v>4</v>
+      </c>
+      <c r="J20" s="44">
+        <v>2</v>
+      </c>
+      <c r="K20" s="44">
+        <v>2</v>
+      </c>
       <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
+      <c r="A21" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="44">
+        <v>1003</v>
+      </c>
+      <c r="C21" s="44">
+        <v>2</v>
+      </c>
+      <c r="D21" s="44">
+        <v>1</v>
+      </c>
+      <c r="E21" s="44">
+        <v>1</v>
+      </c>
+      <c r="F21" s="44">
+        <v>2</v>
+      </c>
+      <c r="G21" s="44">
+        <v>2</v>
+      </c>
+      <c r="H21" s="44">
+        <v>1</v>
+      </c>
+      <c r="I21" s="44">
+        <v>2</v>
+      </c>
+      <c r="J21" s="44">
+        <v>2</v>
+      </c>
+      <c r="K21" s="44">
+        <v>2</v>
+      </c>
       <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
+      <c r="A22" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="44">
+        <v>1009</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="44">
+        <v>4</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="44">
+        <v>2</v>
+      </c>
+      <c r="G22" s="44">
+        <v>2</v>
+      </c>
+      <c r="H22" s="44">
+        <v>3</v>
+      </c>
+      <c r="I22" s="44">
+        <v>2</v>
+      </c>
+      <c r="J22" s="44">
+        <v>4</v>
+      </c>
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+      <c r="A23" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="44">
+        <v>1023</v>
+      </c>
+      <c r="C23" s="44">
+        <v>4</v>
+      </c>
+      <c r="D23" s="44">
+        <v>3</v>
+      </c>
+      <c r="E23" s="44">
+        <v>4</v>
+      </c>
+      <c r="F23" s="44">
+        <v>2</v>
+      </c>
       <c r="G23" s="45"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
+      <c r="H23" s="44">
+        <v>2</v>
+      </c>
+      <c r="I23" s="44">
+        <v>4</v>
+      </c>
+      <c r="J23" s="44">
+        <v>3</v>
+      </c>
+      <c r="K23" s="45"/>
+      <c r="L23" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="A24" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="44">
+        <v>1028</v>
+      </c>
+      <c r="C24" s="45"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
@@ -1788,162 +2153,350 @@
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
       <c r="J24" s="45"/>
-      <c r="K24" s="44"/>
+      <c r="K24" s="45"/>
       <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="A25" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="44">
+        <v>1025</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="44">
+        <v>2</v>
+      </c>
+      <c r="G25" s="44">
+        <v>3</v>
+      </c>
       <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="I25" s="44">
+        <v>3</v>
+      </c>
       <c r="J25" s="45"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
+      <c r="K25" s="44">
+        <v>1</v>
+      </c>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
+      <c r="A26" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="44">
+        <v>1001</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="44">
+        <v>4</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="44">
+        <v>2</v>
+      </c>
+      <c r="G26" s="44">
+        <v>4</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="44">
+        <v>2</v>
+      </c>
+      <c r="J26" s="44">
+        <v>4</v>
+      </c>
+      <c r="K26" s="44">
+        <v>1</v>
+      </c>
+      <c r="L26" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="44"/>
+      <c r="A27" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="44">
+        <v>1041</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="44">
+        <v>4</v>
+      </c>
+      <c r="E27" s="44">
+        <v>3</v>
+      </c>
+      <c r="F27" s="44">
+        <v>2</v>
+      </c>
+      <c r="G27" s="44">
+        <v>2</v>
+      </c>
+      <c r="H27" s="44">
+        <v>1</v>
+      </c>
+      <c r="I27" s="44">
+        <v>2</v>
+      </c>
+      <c r="J27" s="44">
+        <v>2</v>
+      </c>
+      <c r="K27" s="44">
+        <v>1</v>
+      </c>
       <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="44">
+        <v>1017</v>
+      </c>
       <c r="C28" s="45"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
+      <c r="D28" s="44">
+        <v>2</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="44">
+        <v>2</v>
+      </c>
       <c r="G28" s="45"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="44">
+        <v>3</v>
+      </c>
+      <c r="J28" s="44">
+        <v>4</v>
+      </c>
+      <c r="K28" s="44">
+        <v>2</v>
+      </c>
+      <c r="L28" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
+      <c r="A29" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="44">
+        <v>1004</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="44">
+        <v>1</v>
+      </c>
+      <c r="E29" s="44">
+        <v>4</v>
+      </c>
+      <c r="F29" s="44">
+        <v>2</v>
+      </c>
+      <c r="G29" s="44">
+        <v>2</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="44">
+        <v>3</v>
+      </c>
       <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
+      <c r="K29" s="44">
+        <v>3</v>
+      </c>
+      <c r="L29" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
+      <c r="A30" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="44">
+        <v>1039</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="44">
+        <v>4</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="44">
+        <v>2</v>
+      </c>
       <c r="G30" s="45"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
+      <c r="H30" s="44">
+        <v>4</v>
+      </c>
+      <c r="I30" s="44">
+        <v>2</v>
+      </c>
       <c r="J30" s="45"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="45"/>
+      <c r="K30" s="44">
+        <v>1</v>
+      </c>
+      <c r="L30" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="A31" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="44">
+        <v>1019</v>
+      </c>
+      <c r="C31" s="44">
+        <v>1</v>
+      </c>
+      <c r="D31" s="44">
+        <v>4</v>
+      </c>
+      <c r="E31" s="44">
+        <v>3</v>
+      </c>
+      <c r="F31" s="44">
+        <v>2</v>
+      </c>
+      <c r="G31" s="44">
+        <v>2</v>
+      </c>
+      <c r="H31" s="44">
+        <v>4</v>
+      </c>
+      <c r="I31" s="44">
+        <v>4</v>
+      </c>
+      <c r="J31" s="44">
+        <v>4</v>
+      </c>
       <c r="K31" s="45"/>
-      <c r="L31" s="44"/>
+      <c r="L31" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
+      <c r="A32" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="44">
+        <v>1010</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="44">
+        <v>4</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="44">
+        <v>1</v>
+      </c>
+      <c r="G32" s="44">
+        <v>4</v>
+      </c>
+      <c r="H32" s="44">
+        <v>4</v>
+      </c>
+      <c r="I32" s="44">
+        <v>2</v>
+      </c>
       <c r="J32" s="45"/>
       <c r="K32" s="45"/>
-      <c r="L32" s="44"/>
+      <c r="L32" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="44"/>
+      <c r="A33" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="44">
+        <v>1033</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="44">
+        <v>2</v>
+      </c>
+      <c r="G33" s="44">
+        <v>4</v>
+      </c>
+      <c r="H33" s="44">
+        <v>4</v>
+      </c>
+      <c r="I33" s="44">
+        <v>2</v>
+      </c>
       <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
+      <c r="K33" s="44">
+        <v>1</v>
+      </c>
+      <c r="L33" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
+      <c r="A34" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="44">
+        <v>1006</v>
+      </c>
+      <c r="C34" s="44">
+        <v>1</v>
+      </c>
+      <c r="D34" s="44">
+        <v>4</v>
+      </c>
+      <c r="E34" s="44">
+        <v>3</v>
+      </c>
+      <c r="F34" s="44">
+        <v>2</v>
+      </c>
+      <c r="G34" s="44">
+        <v>2</v>
+      </c>
+      <c r="H34" s="45"/>
+      <c r="I34" s="44">
+        <v>2</v>
+      </c>
+      <c r="J34" s="44">
+        <v>2</v>
+      </c>
+      <c r="K34" s="44">
+        <v>2</v>
+      </c>
       <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
+      <c r="A35" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="44">
+        <v>1027</v>
+      </c>
+      <c r="C35" s="45"/>
       <c r="D35" s="45"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+      <c r="E35" s="44">
+        <v>3</v>
+      </c>
+      <c r="F35" s="44">
+        <v>2</v>
+      </c>
       <c r="G35" s="45"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="44">
+        <v>2</v>
+      </c>
       <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
+      <c r="K35" s="44">
+        <v>2</v>
+      </c>
+      <c r="L35" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
@@ -2072,18 +2625,18 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="51"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2098,7 +2651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -2178,52 +2731,52 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+      <c r="A3" s="49">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="A4" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="52">
+      <c r="A5" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="49">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="52">
+      <c r="A7" s="49">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="49">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="52">
+      <c r="A9" s="49">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="A10" s="49">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
+      <c r="A11" s="49">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="49">
         <v>4</v>
       </c>
     </row>
@@ -2302,17 +2855,17 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="11" t="str">
         <f>گوگل!A2</f>
-        <v>0</v>
+        <v>دانیل میری</v>
       </c>
       <c r="B2" s="11">
         <f>گوگل!B2</f>
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="C2" s="12">
         <f>IF(گوگل!C2=کلید!B$2,3,IF(گوگل!C2="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="12">
         <f>IF(گوگل!D2=کلید!C$2,3,IF(گوگل!D2="",0,-1))</f>
@@ -2320,49 +2873,49 @@
       </c>
       <c r="E2" s="12">
         <f>IF(گوگل!E2=کلید!D$2,3,IF(گوگل!E2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2" s="12">
         <f>IF(گوگل!F2=کلید!E$2,3,IF(گوگل!F2="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" s="12">
         <f>IF(گوگل!G2=کلید!F$2,3,IF(گوگل!G2="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="12">
         <f>IF(گوگل!H2=کلید!G$2,3,IF(گوگل!H2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I2" s="12">
         <f>IF(گوگل!I2=کلید!H$2,3,IF(گوگل!I2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2" s="12">
         <f>IF(گوگل!J2=کلید!I$2,3,IF(گوگل!J2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K2" s="12">
         <f>IF(گوگل!K2=کلید!J$2,3,IF(گوگل!K2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L2" s="12">
         <f>IF(گوگل!L2=کلید!K$2,3,IF(گوگل!L2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M2" s="13">
         <f t="shared" ref="M2:M44" si="0">(SUM(C2:L2)/(30))*100</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="11" t="str">
         <f>گوگل!A3</f>
-        <v>0</v>
+        <v>محمد صادقی</v>
       </c>
       <c r="B3" s="11">
         <f>گوگل!B3</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="C3" s="12">
         <f>IF(گوگل!C3=کلید!B$2,3,IF(گوگل!C3="",0,-1))</f>
@@ -2410,99 +2963,99 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="11" t="str">
         <f>گوگل!A4</f>
-        <v>0</v>
+        <v>محمدپارسا عباس زاده</v>
       </c>
       <c r="B4" s="11">
         <f>گوگل!B4</f>
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="C4" s="12">
         <f>IF(گوگل!C4=کلید!B$2,3,IF(گوگل!C4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="12">
         <f>IF(گوگل!D4=کلید!C$2,3,IF(گوگل!D4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="12">
         <f>IF(گوگل!E4=کلید!D$2,3,IF(گوگل!E4="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F4" s="12">
         <f>IF(گوگل!F4=کلید!E$2,3,IF(گوگل!F4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="12">
         <f>IF(گوگل!G4=کلید!F$2,3,IF(گوگل!G4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="12">
         <f>IF(گوگل!H4=کلید!G$2,3,IF(گوگل!H4="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I4" s="12">
         <f>IF(گوگل!I4=کلید!H$2,3,IF(گوگل!I4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="12">
         <f>IF(گوگل!J4=کلید!I$2,3,IF(گوگل!J4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="12">
         <f>IF(گوگل!K4=کلید!J$2,3,IF(گوگل!K4="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L4" s="12">
         <f>IF(گوگل!L4=کلید!K$2,3,IF(گوگل!L4="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="11" t="str">
         <f>گوگل!A5</f>
-        <v>0</v>
+        <v>هومن حدیدی</v>
       </c>
       <c r="B5" s="11">
         <f>گوگل!B5</f>
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="C5" s="12">
         <f>IF(گوگل!C5=کلید!B$2,3,IF(گوگل!C5="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="12">
         <f>IF(گوگل!D5=کلید!C$2,3,IF(گوگل!D5="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5" s="12">
         <f>IF(گوگل!E5=کلید!D$2,3,IF(گوگل!E5="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="12">
         <f>IF(گوگل!F5=کلید!E$2,3,IF(گوگل!F5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="12">
         <f>IF(گوگل!G5=کلید!F$2,3,IF(گوگل!G5="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="12">
         <f>IF(گوگل!H5=کلید!G$2,3,IF(گوگل!H5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="12">
         <f>IF(گوگل!I5=کلید!H$2,3,IF(گوگل!I5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="12">
         <f>IF(گوگل!J5=کلید!I$2,3,IF(گوگل!J5="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K5" s="12">
         <f>IF(گوگل!K5=کلید!J$2,3,IF(گوگل!K5="",0,-1))</f>
@@ -2510,21 +3063,21 @@
       </c>
       <c r="L5" s="12">
         <f>IF(گوگل!L5=کلید!K$2,3,IF(گوگل!L5="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M5" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="11" t="str">
         <f>گوگل!A6</f>
-        <v>0</v>
+        <v>محمدامین حسین نژاد</v>
       </c>
       <c r="B6" s="11">
         <f>گوگل!B6</f>
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="C6" s="12">
         <f>IF(گوگل!C6=کلید!B$2,3,IF(گوگل!C6="",0,-1))</f>
@@ -2532,15 +3085,15 @@
       </c>
       <c r="D6" s="12">
         <f>IF(گوگل!D6=کلید!C$2,3,IF(گوگل!D6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="12">
         <f>IF(گوگل!E6=کلید!D$2,3,IF(گوگل!E6="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="12">
         <f>IF(گوگل!F6=کلید!E$2,3,IF(گوگل!F6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="12">
         <f>IF(گوگل!G6=کلید!F$2,3,IF(گوگل!G6="",0,-1))</f>
@@ -2552,7 +3105,7 @@
       </c>
       <c r="I6" s="12">
         <f>IF(گوگل!I6=کلید!H$2,3,IF(گوگل!I6="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J6" s="12">
         <f>IF(گوگل!J6=کلید!I$2,3,IF(گوگل!J6="",0,-1))</f>
@@ -2568,17 +3121,17 @@
       </c>
       <c r="M6" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="11" t="str">
         <f>گوگل!A7</f>
-        <v>0</v>
+        <v>ابوالفضل کوکبی</v>
       </c>
       <c r="B7" s="11">
         <f>گوگل!B7</f>
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="C7" s="12">
         <f>IF(گوگل!C7=کلید!B$2,3,IF(گوگل!C7="",0,-1))</f>
@@ -2594,7 +3147,7 @@
       </c>
       <c r="F7" s="12">
         <f>IF(گوگل!F7=کلید!E$2,3,IF(گوگل!F7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="12">
         <f>IF(گوگل!G7=کلید!F$2,3,IF(گوگل!G7="",0,-1))</f>
@@ -2602,15 +3155,15 @@
       </c>
       <c r="H7" s="12">
         <f>IF(گوگل!H7=کلید!G$2,3,IF(گوگل!H7="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="12">
         <f>IF(گوگل!I7=کلید!H$2,3,IF(گوگل!I7="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J7" s="12">
         <f>IF(گوگل!J7=کلید!I$2,3,IF(گوگل!J7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="12">
         <f>IF(گوگل!K7=کلید!J$2,3,IF(گوگل!K7="",0,-1))</f>
@@ -2618,29 +3171,29 @@
       </c>
       <c r="L7" s="12">
         <f>IF(گوگل!L7=کلید!K$2,3,IF(گوگل!L7="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="11" t="str">
         <f>گوگل!A8</f>
-        <v>0</v>
+        <v>امیرمهدی قاسمی</v>
       </c>
       <c r="B8" s="11">
         <f>گوگل!B8</f>
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="C8" s="12">
         <f>IF(گوگل!C8=کلید!B$2,3,IF(گوگل!C8="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8" s="12">
         <f>IF(گوگل!D8=کلید!C$2,3,IF(گوگل!D8="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="12">
         <f>IF(گوگل!E8=کلید!D$2,3,IF(گوگل!E8="",0,-1))</f>
@@ -2648,23 +3201,23 @@
       </c>
       <c r="F8" s="12">
         <f>IF(گوگل!F8=کلید!E$2,3,IF(گوگل!F8="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="12">
         <f>IF(گوگل!G8=کلید!F$2,3,IF(گوگل!G8="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="12">
         <f>IF(گوگل!H8=کلید!G$2,3,IF(گوگل!H8="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I8" s="12">
         <f>IF(گوگل!I8=کلید!H$2,3,IF(گوگل!I8="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J8" s="12">
         <f>IF(گوگل!J8=کلید!I$2,3,IF(گوگل!J8="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="12">
         <f>IF(گوگل!K8=کلید!J$2,3,IF(گوگل!K8="",0,-1))</f>
@@ -2672,21 +3225,21 @@
       </c>
       <c r="L8" s="12">
         <f>IF(گوگل!L8=کلید!K$2,3,IF(گوگل!L8="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-13.333333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="11" t="str">
         <f>گوگل!A9</f>
-        <v>0</v>
+        <v>علی اصغر علیشاه نژاد</v>
       </c>
       <c r="B9" s="11">
         <f>گوگل!B9</f>
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="C9" s="12">
         <f>IF(گوگل!C9=کلید!B$2,3,IF(گوگل!C9="",0,-1))</f>
@@ -2694,7 +3247,7 @@
       </c>
       <c r="D9" s="12">
         <f>IF(گوگل!D9=کلید!C$2,3,IF(گوگل!D9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="12">
         <f>IF(گوگل!E9=کلید!D$2,3,IF(گوگل!E9="",0,-1))</f>
@@ -2702,23 +3255,23 @@
       </c>
       <c r="F9" s="12">
         <f>IF(گوگل!F9=کلید!E$2,3,IF(گوگل!F9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="12">
         <f>IF(گوگل!G9=کلید!F$2,3,IF(گوگل!G9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="12">
         <f>IF(گوگل!H9=کلید!G$2,3,IF(گوگل!H9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="12">
         <f>IF(گوگل!I9=کلید!H$2,3,IF(گوگل!I9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="12">
         <f>IF(گوگل!J9=کلید!I$2,3,IF(گوگل!J9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="12">
         <f>IF(گوگل!K9=کلید!J$2,3,IF(گوگل!K9="",0,-1))</f>
@@ -2730,125 +3283,125 @@
       </c>
       <c r="M9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="11" t="str">
         <f>گوگل!A10</f>
-        <v>0</v>
+        <v>سید مهدی درخشان</v>
       </c>
       <c r="B10" s="11">
         <f>گوگل!B10</f>
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="C10" s="12">
         <f>IF(گوگل!C10=کلید!B$2,3,IF(گوگل!C10="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10" s="12">
         <f>IF(گوگل!D10=کلید!C$2,3,IF(گوگل!D10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="12">
         <f>IF(گوگل!E10=کلید!D$2,3,IF(گوگل!E10="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F10" s="12">
         <f>IF(گوگل!F10=کلید!E$2,3,IF(گوگل!F10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="12">
         <f>IF(گوگل!G10=کلید!F$2,3,IF(گوگل!G10="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H10" s="12">
         <f>IF(گوگل!H10=کلید!G$2,3,IF(گوگل!H10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="12">
         <f>IF(گوگل!I10=کلید!H$2,3,IF(گوگل!I10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="12">
         <f>IF(گوگل!J10=کلید!I$2,3,IF(گوگل!J10="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K10" s="12">
         <f>IF(گوگل!K10=کلید!J$2,3,IF(گوگل!K10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="12">
         <f>IF(گوگل!L10=کلید!K$2,3,IF(گوگل!L10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="11" t="str">
         <f>گوگل!A11</f>
-        <v>0</v>
+        <v>علیرضا باقری</v>
       </c>
       <c r="B11" s="11">
         <f>گوگل!B11</f>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="C11" s="12">
         <f>IF(گوگل!C11=کلید!B$2,3,IF(گوگل!C11="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="12">
         <f>IF(گوگل!D11=کلید!C$2,3,IF(گوگل!D11="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E11" s="12">
         <f>IF(گوگل!E11=کلید!D$2,3,IF(گوگل!E11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="12">
         <f>IF(گوگل!F11=کلید!E$2,3,IF(گوگل!F11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="12">
         <f>IF(گوگل!G11=کلید!F$2,3,IF(گوگل!G11="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="12">
         <f>IF(گوگل!H11=کلید!G$2,3,IF(گوگل!H11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="12">
         <f>IF(گوگل!I11=کلید!H$2,3,IF(گوگل!I11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="12">
         <f>IF(گوگل!J11=کلید!I$2,3,IF(گوگل!J11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" s="12">
         <f>IF(گوگل!K11=کلید!J$2,3,IF(گوگل!K11="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L11" s="12">
         <f>IF(گوگل!L11=کلید!K$2,3,IF(گوگل!L11="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="11" t="str">
         <f>گوگل!A12</f>
-        <v>0</v>
+        <v>مهدی حسن وند</v>
       </c>
       <c r="B12" s="11">
         <f>گوگل!B12</f>
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="C12" s="12">
         <f>IF(گوگل!C12=کلید!B$2,3,IF(گوگل!C12="",0,-1))</f>
@@ -2856,7 +3409,7 @@
       </c>
       <c r="D12" s="12">
         <f>IF(گوگل!D12=کلید!C$2,3,IF(گوگل!D12="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E12" s="12">
         <f>IF(گوگل!E12=کلید!D$2,3,IF(گوگل!E12="",0,-1))</f>
@@ -2864,19 +3417,19 @@
       </c>
       <c r="F12" s="12">
         <f>IF(گوگل!F12=کلید!E$2,3,IF(گوگل!F12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="12">
         <f>IF(گوگل!G12=کلید!F$2,3,IF(گوگل!G12="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H12" s="12">
         <f>IF(گوگل!H12=کلید!G$2,3,IF(گوگل!H12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="12">
         <f>IF(گوگل!I12=کلید!H$2,3,IF(گوگل!I12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="12">
         <f>IF(گوگل!J12=کلید!I$2,3,IF(گوگل!J12="",0,-1))</f>
@@ -2884,29 +3437,29 @@
       </c>
       <c r="K12" s="12">
         <f>IF(گوگل!K12=کلید!J$2,3,IF(گوگل!K12="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L12" s="12">
         <f>IF(گوگل!L12=کلید!K$2,3,IF(گوگل!L12="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M12" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="11" t="str">
         <f>گوگل!A13</f>
-        <v>0</v>
+        <v>محمدجواد امیدی</v>
       </c>
       <c r="B13" s="11">
         <f>گوگل!B13</f>
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="C13" s="12">
         <f>IF(گوگل!C13=کلید!B$2,3,IF(گوگل!C13="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D13" s="12">
         <f>IF(گوگل!D13=کلید!C$2,3,IF(گوگل!D13="",0,-1))</f>
@@ -2914,7 +3467,7 @@
       </c>
       <c r="E13" s="12">
         <f>IF(گوگل!E13=کلید!D$2,3,IF(گوگل!E13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="12">
         <f>IF(گوگل!F13=کلید!E$2,3,IF(گوگل!F13="",0,-1))</f>
@@ -2926,7 +3479,7 @@
       </c>
       <c r="H13" s="12">
         <f>IF(گوگل!H13=کلید!G$2,3,IF(گوگل!H13="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I13" s="12">
         <f>IF(گوگل!I13=کلید!H$2,3,IF(گوگل!I13="",0,-1))</f>
@@ -2934,11 +3487,11 @@
       </c>
       <c r="J13" s="12">
         <f>IF(گوگل!J13=کلید!I$2,3,IF(گوگل!J13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" s="12">
         <f>IF(گوگل!K13=کلید!J$2,3,IF(گوگل!K13="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L13" s="12">
         <f>IF(گوگل!L13=کلید!K$2,3,IF(گوگل!L13="",0,-1))</f>
@@ -2946,25 +3499,25 @@
       </c>
       <c r="M13" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="11" t="str">
         <f>گوگل!A14</f>
-        <v>0</v>
+        <v>مانی حسینی</v>
       </c>
       <c r="B14" s="11">
         <f>گوگل!B14</f>
-        <v>0</v>
+        <v>1013</v>
       </c>
       <c r="C14" s="12">
         <f>IF(گوگل!C14=کلید!B$2,3,IF(گوگل!C14="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D14" s="12">
         <f>IF(گوگل!D14=کلید!C$2,3,IF(گوگل!D14="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E14" s="12">
         <f>IF(گوگل!E14=کلید!D$2,3,IF(گوگل!E14="",0,-1))</f>
@@ -2972,11 +3525,11 @@
       </c>
       <c r="F14" s="12">
         <f>IF(گوگل!F14=کلید!E$2,3,IF(گوگل!F14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="12">
         <f>IF(گوگل!G14=کلید!F$2,3,IF(گوگل!G14="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="12">
         <f>IF(گوگل!H14=کلید!G$2,3,IF(گوگل!H14="",0,-1))</f>
@@ -2984,23 +3537,23 @@
       </c>
       <c r="I14" s="12">
         <f>IF(گوگل!I14=کلید!H$2,3,IF(گوگل!I14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" s="12">
         <f>IF(گوگل!J14=کلید!I$2,3,IF(گوگل!J14="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K14" s="12">
         <f>IF(گوگل!K14=کلید!J$2,3,IF(گوگل!K14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" s="12">
         <f>IF(گوگل!L14=کلید!K$2,3,IF(گوگل!L14="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3058,13 +3611,13 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="11" t="str">
         <f>گوگل!A16</f>
-        <v>0</v>
+        <v>حسین محسن وند</v>
       </c>
       <c r="B16" s="11">
         <f>گوگل!B16</f>
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="C16" s="12">
         <f>IF(گوگل!C16=کلید!B$2,3,IF(گوگل!C16="",0,-1))</f>
@@ -3072,61 +3625,61 @@
       </c>
       <c r="D16" s="12">
         <f>IF(گوگل!D16=کلید!C$2,3,IF(گوگل!D16="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E16" s="12">
         <f>IF(گوگل!E16=کلید!D$2,3,IF(گوگل!E16="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F16" s="12">
         <f>IF(گوگل!F16=کلید!E$2,3,IF(گوگل!F16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="12">
         <f>IF(گوگل!G16=کلید!F$2,3,IF(گوگل!G16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="12">
         <f>IF(گوگل!H16=کلید!G$2,3,IF(گوگل!H16="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I16" s="12">
         <f>IF(گوگل!I16=کلید!H$2,3,IF(گوگل!I16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" s="12">
         <f>IF(گوگل!J16=کلید!I$2,3,IF(گوگل!J16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="12">
         <f>IF(گوگل!K16=کلید!J$2,3,IF(گوگل!K16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="12">
         <f>IF(گوگل!L16=کلید!K$2,3,IF(گوگل!L16="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="11" t="str">
         <f>گوگل!A17</f>
-        <v>0</v>
+        <v>علی شعبانی</v>
       </c>
       <c r="B17" s="11">
         <f>گوگل!B17</f>
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="C17" s="12">
         <f>IF(گوگل!C17=کلید!B$2,3,IF(گوگل!C17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="12">
         <f>IF(گوگل!D17=کلید!C$2,3,IF(گوگل!D17="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E17" s="12">
         <f>IF(گوگل!E17=کلید!D$2,3,IF(گوگل!E17="",0,-1))</f>
@@ -3134,11 +3687,11 @@
       </c>
       <c r="F17" s="12">
         <f>IF(گوگل!F17=کلید!E$2,3,IF(گوگل!F17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="12">
         <f>IF(گوگل!G17=کلید!F$2,3,IF(گوگل!G17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="12">
         <f>IF(گوگل!H17=کلید!G$2,3,IF(گوگل!H17="",0,-1))</f>
@@ -3162,17 +3715,17 @@
       </c>
       <c r="M17" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="11" t="str">
         <f>گوگل!A18</f>
-        <v>0</v>
+        <v>محسن موسیوند</v>
       </c>
       <c r="B18" s="11">
         <f>گوگل!B18</f>
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="C18" s="12">
         <f>IF(گوگل!C18=کلید!B$2,3,IF(گوگل!C18="",0,-1))</f>
@@ -3192,7 +3745,7 @@
       </c>
       <c r="G18" s="12">
         <f>IF(گوگل!G18=کلید!F$2,3,IF(گوگل!G18="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="12">
         <f>IF(گوگل!H18=کلید!G$2,3,IF(گوگل!H18="",0,-1))</f>
@@ -3216,17 +3769,17 @@
       </c>
       <c r="M18" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3.3333333333333335</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="11" t="str">
         <f>گوگل!A19</f>
-        <v>0</v>
+        <v>امیررضا صدیقی</v>
       </c>
       <c r="B19" s="11">
         <f>گوگل!B19</f>
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="C19" s="12">
         <f>IF(گوگل!C19=کلید!B$2,3,IF(گوگل!C19="",0,-1))</f>
@@ -3246,19 +3799,19 @@
       </c>
       <c r="G19" s="12">
         <f>IF(گوگل!G19=کلید!F$2,3,IF(گوگل!G19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="12">
         <f>IF(گوگل!H19=کلید!G$2,3,IF(گوگل!H19="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I19" s="12">
         <f>IF(گوگل!I19=کلید!H$2,3,IF(گوگل!I19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="12">
         <f>IF(گوگل!J19=کلید!I$2,3,IF(گوگل!J19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" s="12">
         <f>IF(گوگل!K19=کلید!J$2,3,IF(گوگل!K19="",0,-1))</f>
@@ -3270,17 +3823,17 @@
       </c>
       <c r="M19" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="11" t="str">
         <f>گوگل!A20</f>
-        <v>0</v>
+        <v>علی محمدی</v>
       </c>
       <c r="B20" s="11">
         <f>گوگل!B20</f>
-        <v>0</v>
+        <v>1036</v>
       </c>
       <c r="C20" s="12">
         <f>IF(گوگل!C20=کلید!B$2,3,IF(گوگل!C20="",0,-1))</f>
@@ -3296,11 +3849,11 @@
       </c>
       <c r="F20" s="12">
         <f>IF(گوگل!F20=کلید!E$2,3,IF(گوگل!F20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="12">
         <f>IF(گوگل!G20=کلید!F$2,3,IF(گوگل!G20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="12">
         <f>IF(گوگل!H20=کلید!G$2,3,IF(گوگل!H20="",0,-1))</f>
@@ -3308,15 +3861,15 @@
       </c>
       <c r="I20" s="12">
         <f>IF(گوگل!I20=کلید!H$2,3,IF(گوگل!I20="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J20" s="12">
         <f>IF(گوگل!J20=کلید!I$2,3,IF(گوگل!J20="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K20" s="12">
         <f>IF(گوگل!K20=کلید!J$2,3,IF(گوگل!K20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" s="12">
         <f>IF(گوگل!L20=کلید!K$2,3,IF(گوگل!L20="",0,-1))</f>
@@ -3324,53 +3877,53 @@
       </c>
       <c r="M20" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23.333333333333332</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="11" t="str">
         <f>گوگل!A21</f>
-        <v>0</v>
+        <v>امیرمهدی امانی</v>
       </c>
       <c r="B21" s="11">
         <f>گوگل!B21</f>
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="C21" s="12">
         <f>IF(گوگل!C21=کلید!B$2,3,IF(گوگل!C21="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D21" s="12">
         <f>IF(گوگل!D21=کلید!C$2,3,IF(گوگل!D21="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="12">
         <f>IF(گوگل!E21=کلید!D$2,3,IF(گوگل!E21="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="12">
         <f>IF(گوگل!F21=کلید!E$2,3,IF(گوگل!F21="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="12">
         <f>IF(گوگل!G21=کلید!F$2,3,IF(گوگل!G21="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H21" s="12">
         <f>IF(گوگل!H21=کلید!G$2,3,IF(گوگل!H21="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I21" s="12">
         <f>IF(گوگل!I21=کلید!H$2,3,IF(گوگل!I21="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="12">
         <f>IF(گوگل!J21=کلید!I$2,3,IF(گوگل!J21="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K21" s="12">
         <f>IF(گوگل!K21=کلید!J$2,3,IF(گوگل!K21="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21" s="12">
         <f>IF(گوگل!L21=کلید!K$2,3,IF(گوگل!L21="",0,-1))</f>
@@ -3378,17 +3931,17 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="11" t="str">
         <f>گوگل!A22</f>
-        <v>0</v>
+        <v>علی بشیرزاده</v>
       </c>
       <c r="B22" s="11">
         <f>گوگل!B22</f>
-        <v>0</v>
+        <v>1009</v>
       </c>
       <c r="C22" s="12">
         <f>IF(گوگل!C22=کلید!B$2,3,IF(گوگل!C22="",0,-1))</f>
@@ -3396,7 +3949,7 @@
       </c>
       <c r="D22" s="12">
         <f>IF(گوگل!D22=کلید!C$2,3,IF(گوگل!D22="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E22" s="12">
         <f>IF(گوگل!E22=کلید!D$2,3,IF(گوگل!E22="",0,-1))</f>
@@ -3404,23 +3957,23 @@
       </c>
       <c r="F22" s="12">
         <f>IF(گوگل!F22=کلید!E$2,3,IF(گوگل!F22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="12">
         <f>IF(گوگل!G22=کلید!F$2,3,IF(گوگل!G22="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H22" s="12">
         <f>IF(گوگل!H22=کلید!G$2,3,IF(گوگل!H22="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I22" s="12">
         <f>IF(گوگل!I22=کلید!H$2,3,IF(گوگل!I22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="12">
         <f>IF(گوگل!J22=کلید!I$2,3,IF(گوگل!J22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="12">
         <f>IF(گوگل!K22=کلید!J$2,3,IF(گوگل!K22="",0,-1))</f>
@@ -3432,33 +3985,33 @@
       </c>
       <c r="M22" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="11" t="str">
         <f>گوگل!A23</f>
-        <v>0</v>
+        <v>سینا عبدپور</v>
       </c>
       <c r="B23" s="11">
         <f>گوگل!B23</f>
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="C23" s="12">
         <f>IF(گوگل!C23=کلید!B$2,3,IF(گوگل!C23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="12">
         <f>IF(گوگل!D23=کلید!C$2,3,IF(گوگل!D23="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E23" s="12">
         <f>IF(گوگل!E23=کلید!D$2,3,IF(گوگل!E23="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F23" s="12">
         <f>IF(گوگل!F23=کلید!E$2,3,IF(گوگل!F23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="12">
         <f>IF(گوگل!G23=کلید!F$2,3,IF(گوگل!G23="",0,-1))</f>
@@ -3466,15 +4019,15 @@
       </c>
       <c r="H23" s="12">
         <f>IF(گوگل!H23=کلید!G$2,3,IF(گوگل!H23="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I23" s="12">
         <f>IF(گوگل!I23=کلید!H$2,3,IF(گوگل!I23="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J23" s="12">
         <f>IF(گوگل!J23=کلید!I$2,3,IF(گوگل!J23="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K23" s="12">
         <f>IF(گوگل!K23=کلید!J$2,3,IF(گوگل!K23="",0,-1))</f>
@@ -3482,7 +4035,7 @@
       </c>
       <c r="L23" s="12">
         <f>IF(گوگل!L23=کلید!K$2,3,IF(گوگل!L23="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M23" s="13">
         <f t="shared" si="0"/>
@@ -3490,13 +4043,13 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="11" t="str">
         <f>گوگل!A24</f>
-        <v>0</v>
+        <v>امیرحسین قاسمی</v>
       </c>
       <c r="B24" s="11">
         <f>گوگل!B24</f>
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="C24" s="12">
         <f>IF(گوگل!C24=کلید!B$2,3,IF(گوگل!C24="",0,-1))</f>
@@ -3544,13 +4097,13 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="11" t="str">
         <f>گوگل!A25</f>
-        <v>0</v>
+        <v>محمدحسین علیجانی</v>
       </c>
       <c r="B25" s="11">
         <f>گوگل!B25</f>
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="C25" s="12">
         <f>IF(گوگل!C25=کلید!B$2,3,IF(گوگل!C25="",0,-1))</f>
@@ -3566,11 +4119,11 @@
       </c>
       <c r="F25" s="12">
         <f>IF(گوگل!F25=کلید!E$2,3,IF(گوگل!F25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" s="12">
         <f>IF(گوگل!G25=کلید!F$2,3,IF(گوگل!G25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="12">
         <f>IF(گوگل!H25=کلید!G$2,3,IF(گوگل!H25="",0,-1))</f>
@@ -3578,7 +4131,7 @@
       </c>
       <c r="I25" s="12">
         <f>IF(گوگل!I25=کلید!H$2,3,IF(گوگل!I25="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J25" s="12">
         <f>IF(گوگل!J25=کلید!I$2,3,IF(گوگل!J25="",0,-1))</f>
@@ -3586,7 +4139,7 @@
       </c>
       <c r="K25" s="12">
         <f>IF(گوگل!K25=کلید!J$2,3,IF(گوگل!K25="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L25" s="12">
         <f>IF(گوگل!L25=کلید!K$2,3,IF(گوگل!L25="",0,-1))</f>
@@ -3594,17 +4147,17 @@
       </c>
       <c r="M25" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="11" t="str">
         <f>گوگل!A26</f>
-        <v>0</v>
+        <v>امیرحسین ابوئی</v>
       </c>
       <c r="B26" s="11">
         <f>گوگل!B26</f>
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="C26" s="12">
         <f>IF(گوگل!C26=کلید!B$2,3,IF(گوگل!C26="",0,-1))</f>
@@ -3612,7 +4165,7 @@
       </c>
       <c r="D26" s="12">
         <f>IF(گوگل!D26=کلید!C$2,3,IF(گوگل!D26="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E26" s="12">
         <f>IF(گوگل!E26=کلید!D$2,3,IF(گوگل!E26="",0,-1))</f>
@@ -3620,11 +4173,11 @@
       </c>
       <c r="F26" s="12">
         <f>IF(گوگل!F26=کلید!E$2,3,IF(گوگل!F26="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="12">
         <f>IF(گوگل!G26=کلید!F$2,3,IF(گوگل!G26="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H26" s="12">
         <f>IF(گوگل!H26=کلید!G$2,3,IF(گوگل!H26="",0,-1))</f>
@@ -3632,33 +4185,33 @@
       </c>
       <c r="I26" s="12">
         <f>IF(گوگل!I26=کلید!H$2,3,IF(گوگل!I26="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="12">
         <f>IF(گوگل!J26=کلید!I$2,3,IF(گوگل!J26="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26" s="12">
         <f>IF(گوگل!K26=کلید!J$2,3,IF(گوگل!K26="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L26" s="12">
         <f>IF(گوگل!L26=کلید!K$2,3,IF(گوگل!L26="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M26" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="11" t="str">
         <f>گوگل!A27</f>
-        <v>0</v>
+        <v>محمدکیان ولکجی</v>
       </c>
       <c r="B27" s="11">
         <f>گوگل!B27</f>
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="C27" s="12">
         <f>IF(گوگل!C27=کلید!B$2,3,IF(گوگل!C27="",0,-1))</f>
@@ -3666,35 +4219,35 @@
       </c>
       <c r="D27" s="12">
         <f>IF(گوگل!D27=کلید!C$2,3,IF(گوگل!D27="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E27" s="12">
         <f>IF(گوگل!E27=کلید!D$2,3,IF(گوگل!E27="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F27" s="12">
         <f>IF(گوگل!F27=کلید!E$2,3,IF(گوگل!F27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="12">
         <f>IF(گوگل!G27=کلید!F$2,3,IF(گوگل!G27="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H27" s="12">
         <f>IF(گوگل!H27=کلید!G$2,3,IF(گوگل!H27="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I27" s="12">
         <f>IF(گوگل!I27=کلید!H$2,3,IF(گوگل!I27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" s="12">
         <f>IF(گوگل!J27=کلید!I$2,3,IF(گوگل!J27="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K27" s="12">
         <f>IF(گوگل!K27=کلید!J$2,3,IF(گوگل!K27="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L27" s="12">
         <f>IF(گوگل!L27=کلید!K$2,3,IF(گوگل!L27="",0,-1))</f>
@@ -3706,13 +4259,13 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="11" t="str">
         <f>گوگل!A28</f>
-        <v>0</v>
+        <v>دانیال رجبی</v>
       </c>
       <c r="B28" s="11">
         <f>گوگل!B28</f>
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="C28" s="12">
         <f>IF(گوگل!C28=کلید!B$2,3,IF(گوگل!C28="",0,-1))</f>
@@ -3720,7 +4273,7 @@
       </c>
       <c r="D28" s="12">
         <f>IF(گوگل!D28=کلید!C$2,3,IF(گوگل!D28="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E28" s="12">
         <f>IF(گوگل!E28=کلید!D$2,3,IF(گوگل!E28="",0,-1))</f>
@@ -3728,7 +4281,7 @@
       </c>
       <c r="F28" s="12">
         <f>IF(گوگل!F28=کلید!E$2,3,IF(گوگل!F28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="12">
         <f>IF(گوگل!G28=کلید!F$2,3,IF(گوگل!G28="",0,-1))</f>
@@ -3740,33 +4293,33 @@
       </c>
       <c r="I28" s="12">
         <f>IF(گوگل!I28=کلید!H$2,3,IF(گوگل!I28="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J28" s="12">
         <f>IF(گوگل!J28=کلید!I$2,3,IF(گوگل!J28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="12">
         <f>IF(گوگل!K28=کلید!J$2,3,IF(گوگل!K28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="12">
         <f>IF(گوگل!L28=کلید!K$2,3,IF(گوگل!L28="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M28" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="11" t="str">
         <f>گوگل!A29</f>
-        <v>0</v>
+        <v>محمدمهدی امیدی</v>
       </c>
       <c r="B29" s="11">
         <f>گوگل!B29</f>
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="C29" s="12">
         <f>IF(گوگل!C29=کلید!B$2,3,IF(گوگل!C29="",0,-1))</f>
@@ -3774,19 +4327,19 @@
       </c>
       <c r="D29" s="12">
         <f>IF(گوگل!D29=کلید!C$2,3,IF(گوگل!D29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="12">
         <f>IF(گوگل!E29=کلید!D$2,3,IF(گوگل!E29="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F29" s="12">
         <f>IF(گوگل!F29=کلید!E$2,3,IF(گوگل!F29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="12">
         <f>IF(گوگل!G29=کلید!F$2,3,IF(گوگل!G29="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H29" s="12">
         <f>IF(گوگل!H29=کلید!G$2,3,IF(گوگل!H29="",0,-1))</f>
@@ -3794,7 +4347,7 @@
       </c>
       <c r="I29" s="12">
         <f>IF(گوگل!I29=کلید!H$2,3,IF(گوگل!I29="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J29" s="12">
         <f>IF(گوگل!J29=کلید!I$2,3,IF(گوگل!J29="",0,-1))</f>
@@ -3802,25 +4355,25 @@
       </c>
       <c r="K29" s="12">
         <f>IF(گوگل!K29=کلید!J$2,3,IF(گوگل!K29="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L29" s="12">
         <f>IF(گوگل!L29=کلید!K$2,3,IF(گوگل!L29="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="11" t="str">
         <f>گوگل!A30</f>
-        <v>0</v>
+        <v>نیما نجفی</v>
       </c>
       <c r="B30" s="11">
         <f>گوگل!B30</f>
-        <v>0</v>
+        <v>1039</v>
       </c>
       <c r="C30" s="12">
         <f>IF(گوگل!C30=کلید!B$2,3,IF(گوگل!C30="",0,-1))</f>
@@ -3828,7 +4381,7 @@
       </c>
       <c r="D30" s="12">
         <f>IF(گوگل!D30=کلید!C$2,3,IF(گوگل!D30="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E30" s="12">
         <f>IF(گوگل!E30=کلید!D$2,3,IF(گوگل!E30="",0,-1))</f>
@@ -3836,7 +4389,7 @@
       </c>
       <c r="F30" s="12">
         <f>IF(گوگل!F30=کلید!E$2,3,IF(گوگل!F30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="12">
         <f>IF(گوگل!G30=کلید!F$2,3,IF(گوگل!G30="",0,-1))</f>
@@ -3844,11 +4397,11 @@
       </c>
       <c r="H30" s="12">
         <f>IF(گوگل!H30=کلید!G$2,3,IF(گوگل!H30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30" s="12">
         <f>IF(گوگل!I30=کلید!H$2,3,IF(گوگل!I30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="12">
         <f>IF(گوگل!J30=کلید!I$2,3,IF(گوگل!J30="",0,-1))</f>
@@ -3856,57 +4409,57 @@
       </c>
       <c r="K30" s="12">
         <f>IF(گوگل!K30=کلید!J$2,3,IF(گوگل!K30="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L30" s="12">
         <f>IF(گوگل!L30=کلید!K$2,3,IF(گوگل!L30="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M30" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="11" t="str">
         <f>گوگل!A31</f>
-        <v>0</v>
+        <v>ابوالفضل شکرانه</v>
       </c>
       <c r="B31" s="11">
         <f>گوگل!B31</f>
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="C31" s="12">
         <f>IF(گوگل!C31=کلید!B$2,3,IF(گوگل!C31="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D31" s="12">
         <f>IF(گوگل!D31=کلید!C$2,3,IF(گوگل!D31="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E31" s="12">
         <f>IF(گوگل!E31=کلید!D$2,3,IF(گوگل!E31="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F31" s="12">
         <f>IF(گوگل!F31=کلید!E$2,3,IF(گوگل!F31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="12">
         <f>IF(گوگل!G31=کلید!F$2,3,IF(گوگل!G31="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H31" s="12">
         <f>IF(گوگل!H31=کلید!G$2,3,IF(گوگل!H31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="12">
         <f>IF(گوگل!I31=کلید!H$2,3,IF(گوگل!I31="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J31" s="12">
         <f>IF(گوگل!J31=کلید!I$2,3,IF(گوگل!J31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="12">
         <f>IF(گوگل!K31=کلید!J$2,3,IF(گوگل!K31="",0,-1))</f>
@@ -3914,21 +4467,21 @@
       </c>
       <c r="L31" s="12">
         <f>IF(گوگل!L31=کلید!K$2,3,IF(گوگل!L31="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M31" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="11" t="str">
         <f>گوگل!A32</f>
-        <v>0</v>
+        <v>آرین پاشازاده</v>
       </c>
       <c r="B32" s="11">
         <f>گوگل!B32</f>
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="C32" s="12">
         <f>IF(گوگل!C32=کلید!B$2,3,IF(گوگل!C32="",0,-1))</f>
@@ -3936,7 +4489,7 @@
       </c>
       <c r="D32" s="12">
         <f>IF(گوگل!D32=کلید!C$2,3,IF(گوگل!D32="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E32" s="12">
         <f>IF(گوگل!E32=کلید!D$2,3,IF(گوگل!E32="",0,-1))</f>
@@ -3944,19 +4497,19 @@
       </c>
       <c r="F32" s="12">
         <f>IF(گوگل!F32=کلید!E$2,3,IF(گوگل!F32="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G32" s="12">
         <f>IF(گوگل!G32=کلید!F$2,3,IF(گوگل!G32="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H32" s="12">
         <f>IF(گوگل!H32=کلید!G$2,3,IF(گوگل!H32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="12">
         <f>IF(گوگل!I32=کلید!H$2,3,IF(گوگل!I32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" s="12">
         <f>IF(گوگل!J32=کلید!I$2,3,IF(گوگل!J32="",0,-1))</f>
@@ -3968,21 +4521,21 @@
       </c>
       <c r="L32" s="12">
         <f>IF(گوگل!L32=کلید!K$2,3,IF(گوگل!L32="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M32" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="11" t="str">
         <f>گوگل!A33</f>
-        <v>0</v>
+        <v>بنیامین لطفی</v>
       </c>
       <c r="B33" s="11">
         <f>گوگل!B33</f>
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="C33" s="12">
         <f>IF(گوگل!C33=کلید!B$2,3,IF(گوگل!C33="",0,-1))</f>
@@ -3998,19 +4551,19 @@
       </c>
       <c r="F33" s="12">
         <f>IF(گوگل!F33=کلید!E$2,3,IF(گوگل!F33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" s="12">
         <f>IF(گوگل!G33=کلید!F$2,3,IF(گوگل!G33="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H33" s="12">
         <f>IF(گوگل!H33=کلید!G$2,3,IF(گوگل!H33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33" s="12">
         <f>IF(گوگل!I33=کلید!H$2,3,IF(گوگل!I33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" s="12">
         <f>IF(گوگل!J33=کلید!I$2,3,IF(گوگل!J33="",0,-1))</f>
@@ -4018,45 +4571,45 @@
       </c>
       <c r="K33" s="12">
         <f>IF(گوگل!K33=کلید!J$2,3,IF(گوگل!K33="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L33" s="12">
         <f>IF(گوگل!L33=کلید!K$2,3,IF(گوگل!L33="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M33" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="11" t="str">
         <f>گوگل!A34</f>
-        <v>0</v>
+        <v>هادی آذری</v>
       </c>
       <c r="B34" s="11">
         <f>گوگل!B34</f>
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="C34" s="12">
         <f>IF(گوگل!C34=کلید!B$2,3,IF(گوگل!C34="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="12">
         <f>IF(گوگل!D34=کلید!C$2,3,IF(گوگل!D34="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E34" s="12">
         <f>IF(گوگل!E34=کلید!D$2,3,IF(گوگل!E34="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F34" s="12">
         <f>IF(گوگل!F34=کلید!E$2,3,IF(گوگل!F34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" s="12">
         <f>IF(گوگل!G34=کلید!F$2,3,IF(گوگل!G34="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="12">
         <f>IF(گوگل!H34=کلید!G$2,3,IF(گوگل!H34="",0,-1))</f>
@@ -4064,15 +4617,15 @@
       </c>
       <c r="I34" s="12">
         <f>IF(گوگل!I34=کلید!H$2,3,IF(گوگل!I34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" s="12">
         <f>IF(گوگل!J34=کلید!I$2,3,IF(گوگل!J34="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K34" s="12">
         <f>IF(گوگل!K34=کلید!J$2,3,IF(گوگل!K34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" s="12">
         <f>IF(گوگل!L34=کلید!K$2,3,IF(گوگل!L34="",0,-1))</f>
@@ -4080,17 +4633,17 @@
       </c>
       <c r="M34" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="11" t="str">
         <f>گوگل!A35</f>
-        <v>0</v>
+        <v>محمدمهدی فضلی</v>
       </c>
       <c r="B35" s="11">
         <f>گوگل!B35</f>
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="C35" s="12">
         <f>IF(گوگل!C35=کلید!B$2,3,IF(گوگل!C35="",0,-1))</f>
@@ -4102,11 +4655,11 @@
       </c>
       <c r="E35" s="12">
         <f>IF(گوگل!E35=کلید!D$2,3,IF(گوگل!E35="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F35" s="12">
         <f>IF(گوگل!F35=کلید!E$2,3,IF(گوگل!F35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="12">
         <f>IF(گوگل!G35=کلید!F$2,3,IF(گوگل!G35="",0,-1))</f>
@@ -4118,7 +4671,7 @@
       </c>
       <c r="I35" s="12">
         <f>IF(گوگل!I35=کلید!H$2,3,IF(گوگل!I35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" s="12">
         <f>IF(گوگل!J35=کلید!I$2,3,IF(گوگل!J35="",0,-1))</f>
@@ -4126,15 +4679,15 @@
       </c>
       <c r="K35" s="12">
         <f>IF(گوگل!K35=کلید!J$2,3,IF(گوگل!K35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L35" s="12">
         <f>IF(گوگل!L35=کلید!K$2,3,IF(گوگل!L35="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M35" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23.333333333333332</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4688,8 +5241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4725,11 +5278,11 @@
       </c>
       <c r="C2" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B2)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D2" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D2" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B2)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B2,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1008</v>
       </c>
       <c r="AMI2"/>
     </row>
@@ -4742,11 +5295,11 @@
       </c>
       <c r="C3" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B3)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D3" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D3" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B3)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B3,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1011</v>
       </c>
       <c r="AMI3"/>
     </row>
@@ -4759,11 +5312,11 @@
       </c>
       <c r="C4" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B4)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D4" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D4" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B4)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B4,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1026</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -4808,11 +5361,11 @@
       </c>
       <c r="C6" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B6)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D6" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D6" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B6)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B6,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1018</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -4832,11 +5385,11 @@
       </c>
       <c r="C7" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B7)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D7" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D7" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B7)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B7,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1030</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -4856,11 +5409,11 @@
       </c>
       <c r="C8" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B8)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D8" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D8" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B8)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B8,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1009</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -4880,11 +5433,11 @@
       </c>
       <c r="C9" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B9)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D9" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D9" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B9)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B9,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1012</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -4949,11 +5502,11 @@
       </c>
       <c r="C12" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B12)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D12" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D12" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B12)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B12,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1039</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -4970,11 +5523,11 @@
       </c>
       <c r="C13" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B13)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D13" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D13" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B13)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B13,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1023</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -4991,11 +5544,11 @@
       </c>
       <c r="C14" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B14)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D14" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D14" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B14)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B14,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1028</v>
       </c>
       <c r="AMI14"/>
     </row>
@@ -5008,11 +5561,11 @@
       </c>
       <c r="C15" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B15)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D15" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D15" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B15)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B15,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1005</v>
       </c>
       <c r="AMI15"/>
     </row>
@@ -5025,11 +5578,11 @@
       </c>
       <c r="C16" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B16)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D16" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D16" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B16)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B16,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1025</v>
       </c>
       <c r="AMI16"/>
     </row>
@@ -5059,11 +5612,11 @@
       </c>
       <c r="C18" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B18)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D18" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D18" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B18)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B18,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1020</v>
       </c>
       <c r="AMI18"/>
     </row>
@@ -5093,11 +5646,11 @@
       </c>
       <c r="C20" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B20)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D20" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D20" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B20)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B20,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1037</v>
       </c>
       <c r="AMI20"/>
     </row>
@@ -5127,11 +5680,11 @@
       </c>
       <c r="C22" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B22)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D22" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D22" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B22)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B22,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1004</v>
       </c>
       <c r="AMI22"/>
     </row>
@@ -5144,11 +5697,11 @@
       </c>
       <c r="C23" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B23)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D23" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D23" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B23)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B23,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1014</v>
       </c>
       <c r="AMI23"/>
     </row>
@@ -5161,11 +5714,11 @@
       </c>
       <c r="C24" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B24)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D24" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D24" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B24)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B24,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1013</v>
       </c>
       <c r="AMI24"/>
     </row>
@@ -5178,11 +5731,11 @@
       </c>
       <c r="C25" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B25)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D25" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D25" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B25)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B25,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1017</v>
       </c>
       <c r="AMI25"/>
     </row>
@@ -5195,11 +5748,11 @@
       </c>
       <c r="C26" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B26)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D26" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D26" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B26)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B26,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1019</v>
       </c>
       <c r="AMI26"/>
     </row>
@@ -5212,11 +5765,11 @@
       </c>
       <c r="C27" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B27)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D27" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D27" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B27)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B27,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1033</v>
       </c>
       <c r="AMI27"/>
     </row>
@@ -5229,11 +5782,11 @@
       </c>
       <c r="C28" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B28)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D28" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D28" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B28)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B28,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1036</v>
       </c>
       <c r="AMI28"/>
     </row>
@@ -5246,11 +5799,11 @@
       </c>
       <c r="C29" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B29)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D29" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D29" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B29)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B29,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1003</v>
       </c>
       <c r="AMI29"/>
     </row>
@@ -5263,11 +5816,11 @@
       </c>
       <c r="C30" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B30)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D30" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D30" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B30)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B30,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1001</v>
       </c>
       <c r="AMI30"/>
     </row>
@@ -5297,11 +5850,11 @@
       </c>
       <c r="C32" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B32)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D32" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D32" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B32)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B32,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1022</v>
       </c>
       <c r="AMI32"/>
     </row>
@@ -5314,11 +5867,11 @@
       </c>
       <c r="C33" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B33)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D33" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D33" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B33)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B33,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1029</v>
       </c>
       <c r="AMI33"/>
     </row>
@@ -5331,11 +5884,11 @@
       </c>
       <c r="C34" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B34)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D34" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D34" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B34)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B34,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1038</v>
       </c>
       <c r="AMI34"/>
     </row>
@@ -5348,11 +5901,11 @@
       </c>
       <c r="C35" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B35)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D35" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D35" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B35)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B35,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1021</v>
       </c>
       <c r="AMI35"/>
     </row>
@@ -5365,11 +5918,11 @@
       </c>
       <c r="C36" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B36)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D36" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D36" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B36)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B36,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1015</v>
       </c>
       <c r="AMI36"/>
     </row>
@@ -5382,11 +5935,11 @@
       </c>
       <c r="C37" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B37)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D37" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D37" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B37)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B37,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1027</v>
       </c>
       <c r="AMI37"/>
     </row>
@@ -5416,11 +5969,11 @@
       </c>
       <c r="C39" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B39)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D39" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D39" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B39)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B39,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1041</v>
       </c>
       <c r="AMI39"/>
     </row>
@@ -5433,11 +5986,11 @@
       </c>
       <c r="C40" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B40)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D40" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D40" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B40)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B40,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1010</v>
       </c>
       <c r="AMI40"/>
     </row>
@@ -5450,11 +6003,11 @@
       </c>
       <c r="C41" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B41)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D41" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D41" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B41)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B41,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1035</v>
       </c>
       <c r="AMI41"/>
     </row>
@@ -5467,11 +6020,11 @@
       </c>
       <c r="C42" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B42)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D42" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D42" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B42)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B42,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1006</v>
       </c>
       <c r="AMI42"/>
     </row>
@@ -5486,7 +6039,7 @@
       </c>
       <c r="C44" s="24">
         <f>COUNTIF('نتایج روزانه'!D2:D42,"غایب")</f>
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:1023" x14ac:dyDescent="0.25">
@@ -5580,7 +6133,7 @@
     <row r="2" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A2" s="26">
         <f>RANK(O2, O$2:O$42)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>14</v>
@@ -5590,57 +6143,57 @@
       </c>
       <c r="D2" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C2)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O2" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A3" s="26">
         <f t="shared" ref="A3:A42" si="0">RANK(O3, O$2:O$42)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>19</v>
@@ -5650,39 +6203,39 @@
       </c>
       <c r="D3" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C3)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
@@ -5690,11 +6243,11 @@
       </c>
       <c r="N3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O3" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -5710,7 +6263,7 @@
       </c>
       <c r="D4" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C4)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
@@ -5718,7 +6271,7 @@
       </c>
       <c r="F4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
@@ -5726,23 +6279,23 @@
       </c>
       <c r="H4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
@@ -5754,13 +6307,13 @@
       </c>
       <c r="O4" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A5" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>22</v>
@@ -5820,7 +6373,7 @@
     <row r="6" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A6" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>28</v>
@@ -5830,15 +6383,15 @@
       </c>
       <c r="D6" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C6)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
@@ -5846,11 +6399,11 @@
       </c>
       <c r="H6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
@@ -5874,13 +6427,13 @@
       </c>
       <c r="O6" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A7" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>37</v>
@@ -5890,7 +6443,7 @@
       </c>
       <c r="D7" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C7)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
@@ -5906,7 +6459,7 @@
       </c>
       <c r="H7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
@@ -5914,15 +6467,15 @@
       </c>
       <c r="J7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
@@ -5930,17 +6483,17 @@
       </c>
       <c r="N7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O7" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A8" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>43</v>
@@ -5950,7 +6503,7 @@
       </c>
       <c r="D8" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C8)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
@@ -5958,7 +6511,7 @@
       </c>
       <c r="F8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
@@ -5966,23 +6519,23 @@
       </c>
       <c r="H8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
@@ -5994,13 +6547,13 @@
       </c>
       <c r="O8" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A9" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>46</v>
@@ -6010,7 +6563,7 @@
       </c>
       <c r="D9" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C9)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
@@ -6018,7 +6571,7 @@
       </c>
       <c r="F9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
@@ -6026,19 +6579,19 @@
       </c>
       <c r="H9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
@@ -6046,21 +6599,21 @@
       </c>
       <c r="M9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O9" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>15</v>
@@ -6120,7 +6673,7 @@
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A11" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>45</v>
@@ -6180,7 +6733,7 @@
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>25</v>
@@ -6190,7 +6743,7 @@
       </c>
       <c r="D12" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C12)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
@@ -6198,7 +6751,7 @@
       </c>
       <c r="F12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
@@ -6206,7 +6759,7 @@
       </c>
       <c r="H12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
@@ -6214,11 +6767,11 @@
       </c>
       <c r="J12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
@@ -6226,21 +6779,21 @@
       </c>
       <c r="M12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O12" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A13" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>30</v>
@@ -6250,23 +6803,23 @@
       </c>
       <c r="D13" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C13)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
@@ -6274,15 +6827,15 @@
       </c>
       <c r="J13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
@@ -6290,7 +6843,7 @@
       </c>
       <c r="N13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O13" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
@@ -6300,7 +6853,7 @@
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>16</v>
@@ -6310,7 +6863,7 @@
       </c>
       <c r="D14" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C14)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
@@ -6360,7 +6913,7 @@
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A15" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>34</v>
@@ -6370,11 +6923,11 @@
       </c>
       <c r="D15" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C15)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
@@ -6382,7 +6935,7 @@
       </c>
       <c r="G15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
@@ -6394,7 +6947,7 @@
       </c>
       <c r="J15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
@@ -6402,11 +6955,11 @@
       </c>
       <c r="L15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
@@ -6414,13 +6967,13 @@
       </c>
       <c r="O15" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A16" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>31</v>
@@ -6430,7 +6983,7 @@
       </c>
       <c r="D16" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C16)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
@@ -6446,11 +6999,11 @@
       </c>
       <c r="H16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
@@ -6458,7 +7011,7 @@
       </c>
       <c r="K16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
@@ -6466,7 +7019,7 @@
       </c>
       <c r="M16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
@@ -6474,13 +7027,13 @@
       </c>
       <c r="O16" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A17" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>13</v>
@@ -6540,7 +7093,7 @@
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>17</v>
@@ -6550,7 +7103,7 @@
       </c>
       <c r="D18" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C18)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
@@ -6600,7 +7153,7 @@
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>44</v>
@@ -6660,7 +7213,7 @@
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A20" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>29</v>
@@ -6670,7 +7223,7 @@
       </c>
       <c r="D20" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C20)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
@@ -6690,7 +7243,7 @@
       </c>
       <c r="I20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
@@ -6714,13 +7267,13 @@
       </c>
       <c r="O20" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-3.3333333333333335</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>42</v>
@@ -6780,7 +7333,7 @@
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>38</v>
@@ -6790,7 +7343,7 @@
       </c>
       <c r="D22" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C22)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
@@ -6798,19 +7351,19 @@
       </c>
       <c r="F22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
@@ -6818,7 +7371,7 @@
       </c>
       <c r="K22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
@@ -6826,21 +7379,21 @@
       </c>
       <c r="M22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O22" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>33</v>
@@ -6850,7 +7403,7 @@
       </c>
       <c r="D23" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C23)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
@@ -6858,15 +7411,15 @@
       </c>
       <c r="F23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
@@ -6878,7 +7431,7 @@
       </c>
       <c r="K23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
@@ -6894,13 +7447,13 @@
       </c>
       <c r="O23" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A24" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>35</v>
@@ -6910,15 +7463,15 @@
       </c>
       <c r="D24" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C24)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
@@ -6926,11 +7479,11 @@
       </c>
       <c r="H24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
@@ -6938,29 +7491,29 @@
       </c>
       <c r="K24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O24" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>23</v>
@@ -6970,7 +7523,7 @@
       </c>
       <c r="D25" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C25)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
@@ -6978,7 +7531,7 @@
       </c>
       <c r="F25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
@@ -6986,7 +7539,7 @@
       </c>
       <c r="H25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
@@ -6998,29 +7551,29 @@
       </c>
       <c r="K25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O25" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A26" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>40</v>
@@ -7030,39 +7583,39 @@
       </c>
       <c r="D26" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C26)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
@@ -7070,17 +7623,17 @@
       </c>
       <c r="N26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O26" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>49</v>
@@ -7090,7 +7643,7 @@
       </c>
       <c r="D27" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C27)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
@@ -7106,19 +7659,19 @@
       </c>
       <c r="H27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
@@ -7126,21 +7679,21 @@
       </c>
       <c r="M27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O27" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A28" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>41</v>
@@ -7150,7 +7703,7 @@
       </c>
       <c r="D28" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C28)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
@@ -7166,11 +7719,11 @@
       </c>
       <c r="H28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
@@ -7178,15 +7731,15 @@
       </c>
       <c r="K28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
@@ -7194,13 +7747,13 @@
       </c>
       <c r="O28" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>23.333333333333332</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>26</v>
@@ -7210,43 +7763,43 @@
       </c>
       <c r="D29" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C29)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
@@ -7254,13 +7807,13 @@
       </c>
       <c r="O29" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>36</v>
@@ -7270,7 +7823,7 @@
       </c>
       <c r="D30" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C30)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
@@ -7278,7 +7831,7 @@
       </c>
       <c r="F30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
@@ -7286,11 +7839,11 @@
       </c>
       <c r="H30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
@@ -7298,29 +7851,29 @@
       </c>
       <c r="K30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O30" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>48</v>
@@ -7380,7 +7933,7 @@
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A32" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>20</v>
@@ -7390,57 +7943,57 @@
       </c>
       <c r="D32" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C32)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O32" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>47</v>
@@ -7450,15 +8003,15 @@
       </c>
       <c r="D33" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C33)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
@@ -7466,23 +8019,23 @@
       </c>
       <c r="H33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
@@ -7490,17 +8043,17 @@
       </c>
       <c r="N33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O33" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-13.333333333333334</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>21</v>
@@ -7510,11 +8063,11 @@
       </c>
       <c r="D34" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C34)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
@@ -7522,45 +8075,45 @@
       </c>
       <c r="G34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O34" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A35" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>24</v>
@@ -7570,7 +8123,7 @@
       </c>
       <c r="D35" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C35)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
@@ -7590,19 +8143,19 @@
       </c>
       <c r="I35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
@@ -7614,13 +8167,13 @@
       </c>
       <c r="O35" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A36" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>61</v>
@@ -7630,57 +8183,57 @@
       </c>
       <c r="D36" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C36)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A37" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>12</v>
@@ -7690,7 +8243,7 @@
       </c>
       <c r="D37" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C37)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E37" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C37)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C37,درصد!B$2:B$44,0)),0)</f>
@@ -7702,11 +8255,11 @@
       </c>
       <c r="G37" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C37)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C37,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H37" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C37)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C37,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C37)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C37,درصد!B$2:B$44,0)),0)</f>
@@ -7718,7 +8271,7 @@
       </c>
       <c r="K37" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C37)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C37,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L37" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C37)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C37,درصد!B$2:B$44,0)),0)</f>
@@ -7726,21 +8279,21 @@
       </c>
       <c r="M37" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C37)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C37,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N37" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C37)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C37,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O37" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C37)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C37,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>23.333333333333332</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A38" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>58</v>
@@ -7800,7 +8353,7 @@
     <row r="39" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A39" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>59</v>
@@ -7810,7 +8363,7 @@
       </c>
       <c r="D39" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C39)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
@@ -7818,35 +8371,35 @@
       </c>
       <c r="F39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
@@ -7860,7 +8413,7 @@
     <row r="40" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A40" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>39</v>
@@ -7870,7 +8423,7 @@
       </c>
       <c r="D40" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C40)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
@@ -7878,7 +8431,7 @@
       </c>
       <c r="F40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
@@ -7886,19 +8439,19 @@
       </c>
       <c r="H40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
@@ -7910,17 +8463,17 @@
       </c>
       <c r="N40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O40" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A41" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>32</v>
@@ -7930,7 +8483,7 @@
       </c>
       <c r="D41" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C41)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
@@ -7938,49 +8491,49 @@
       </c>
       <c r="F41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O41" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A42" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>27</v>
@@ -7990,27 +8543,27 @@
       </c>
       <c r="D42" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C42)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
@@ -8018,15 +8571,15 @@
       </c>
       <c r="K42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
@@ -8034,7 +8587,7 @@
       </c>
       <c r="O42" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
@@ -8191,7 +8744,7 @@
       </c>
       <c r="C2" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B2)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -8215,7 +8768,7 @@
       </c>
       <c r="C4" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B4)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -8227,7 +8780,7 @@
       </c>
       <c r="C5" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B5)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8239,7 +8792,7 @@
       </c>
       <c r="C6" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -8251,7 +8804,7 @@
       </c>
       <c r="C7" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -8275,7 +8828,7 @@
       </c>
       <c r="C9" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B9)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -8287,7 +8840,7 @@
       </c>
       <c r="C10" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B10)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -8299,7 +8852,7 @@
       </c>
       <c r="C11" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -8311,7 +8864,7 @@
       </c>
       <c r="C12" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -8323,7 +8876,7 @@
       </c>
       <c r="C13" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -8335,7 +8888,7 @@
       </c>
       <c r="C14" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B14)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -8347,7 +8900,7 @@
       </c>
       <c r="C15" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -8359,7 +8912,7 @@
       </c>
       <c r="C16" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B16)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -8383,7 +8936,7 @@
       </c>
       <c r="C18" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B18)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -8395,7 +8948,7 @@
       </c>
       <c r="C19" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B19)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B19,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8407,7 +8960,7 @@
       </c>
       <c r="C20" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B20)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8431,7 +8984,7 @@
       </c>
       <c r="C22" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -8443,7 +8996,7 @@
       </c>
       <c r="C23" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B23)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -8479,7 +9032,7 @@
       </c>
       <c r="C26" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B26)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -8491,7 +9044,7 @@
       </c>
       <c r="C27" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -8503,7 +9056,7 @@
       </c>
       <c r="C28" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B28)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>23.333333333333332</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -8527,7 +9080,7 @@
       </c>
       <c r="C30" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B30)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-13.333333333333334</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -8539,7 +9092,7 @@
       </c>
       <c r="C31" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B31)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -8575,7 +9128,7 @@
       </c>
       <c r="C34" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B34)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -8599,7 +9152,7 @@
       </c>
       <c r="C36" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B36)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -8611,7 +9164,7 @@
       </c>
       <c r="C37" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B37)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B37,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>23.333333333333332</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -8623,7 +9176,7 @@
       </c>
       <c r="C38" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B38)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-3.3333333333333335</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -8635,7 +9188,7 @@
       </c>
       <c r="C39" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B39)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -8647,7 +9200,7 @@
       </c>
       <c r="C40" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B40)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -8684,8 +9237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8746,14 +9299,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" s="23">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="D2" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C2)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
@@ -8761,7 +9314,7 @@
       </c>
       <c r="F2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
@@ -8769,23 +9322,23 @@
       </c>
       <c r="H2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
@@ -8797,179 +9350,179 @@
       </c>
       <c r="O2" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A3" s="26">
         <f t="shared" ref="A3:A42" si="0">RANK(O3, O$2:O$42)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="23">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="D3" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C3)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A4" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C4" s="23">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="D4" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C4)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O4" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A5" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="23">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D5" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C5)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
@@ -8977,23 +9530,23 @@
       </c>
       <c r="O5" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A6" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" s="23">
-        <v>1018</v>
+        <v>1035</v>
       </c>
       <c r="D6" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C6)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9001,127 +9554,127 @@
       </c>
       <c r="F6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A7" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C7" s="23">
-        <v>1030</v>
+        <v>1008</v>
       </c>
       <c r="D7" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C7)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A8" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C8" s="23">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="D8" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C8)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9129,11 +9682,11 @@
       </c>
       <c r="H8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9157,23 +9710,23 @@
       </c>
       <c r="O8" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A9" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C9" s="23">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="D9" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C9)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9193,19 +9746,19 @@
       </c>
       <c r="I9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9217,23 +9770,23 @@
       </c>
       <c r="O9" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C10" s="23">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="D10" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C10)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9249,11 +9802,11 @@
       </c>
       <c r="H10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9261,15 +9814,15 @@
       </c>
       <c r="K10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9277,23 +9830,23 @@
       </c>
       <c r="O10" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>23.333333333333332</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A11" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C11" s="23">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D11" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C11)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9305,11 +9858,11 @@
       </c>
       <c r="G11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9321,7 +9874,7 @@
       </c>
       <c r="K11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9329,31 +9882,31 @@
       </c>
       <c r="M11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>23.333333333333332</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C12" s="23">
-        <v>1039</v>
+        <v>1009</v>
       </c>
       <c r="D12" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C12)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9361,7 +9914,7 @@
       </c>
       <c r="F12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9369,23 +9922,23 @@
       </c>
       <c r="H12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9397,23 +9950,23 @@
       </c>
       <c r="O12" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A13" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C13" s="23">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D13" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C13)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9421,7 +9974,7 @@
       </c>
       <c r="F13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9429,7 +9982,7 @@
       </c>
       <c r="H13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9441,39 +9994,39 @@
       </c>
       <c r="K13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C14" s="23">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="D14" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C14)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9489,19 +10042,19 @@
       </c>
       <c r="H14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9509,31 +10062,31 @@
       </c>
       <c r="M14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A15" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C15" s="23">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="D15" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C15)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9541,7 +10094,7 @@
       </c>
       <c r="F15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9549,19 +10102,19 @@
       </c>
       <c r="H15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9569,31 +10122,31 @@
       </c>
       <c r="M15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A16" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C16" s="23">
-        <v>1025</v>
+        <v>1001</v>
       </c>
       <c r="D16" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C16)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9601,7 +10154,7 @@
       </c>
       <c r="F16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9609,11 +10162,11 @@
       </c>
       <c r="H16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9621,39 +10174,39 @@
       </c>
       <c r="K16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A17" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C17" s="23">
-        <v>1007</v>
+        <v>1025</v>
       </c>
       <c r="D17" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C17)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9669,11 +10222,11 @@
       </c>
       <c r="H17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9681,7 +10234,7 @@
       </c>
       <c r="K17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9689,7 +10242,7 @@
       </c>
       <c r="M17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9697,23 +10250,23 @@
       </c>
       <c r="O17" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C18" s="23">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D18" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C18)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9721,15 +10274,15 @@
       </c>
       <c r="F18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9741,7 +10294,7 @@
       </c>
       <c r="K18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9757,31 +10310,31 @@
       </c>
       <c r="O18" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C19" s="23">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="D19" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C19)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9789,11 +10342,11 @@
       </c>
       <c r="H19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9801,59 +10354,59 @@
       </c>
       <c r="K19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A20" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="23">
-        <v>1037</v>
+        <v>1006</v>
       </c>
       <c r="D20" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C20)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9861,15 +10414,15 @@
       </c>
       <c r="K20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9877,55 +10430,55 @@
       </c>
       <c r="O20" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C21" s="23">
-        <v>1040</v>
+        <v>1011</v>
       </c>
       <c r="D21" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C21)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9933,27 +10486,27 @@
       </c>
       <c r="N21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O21" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="23">
-        <v>1004</v>
+        <v>1030</v>
       </c>
       <c r="D22" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C22)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9969,7 +10522,7 @@
       </c>
       <c r="H22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9977,15 +10530,15 @@
       </c>
       <c r="J22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9993,27 +10546,27 @@
       </c>
       <c r="N22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O22" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C23" s="23">
-        <v>1014</v>
+        <v>1039</v>
       </c>
       <c r="D23" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C23)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10021,7 +10574,7 @@
       </c>
       <c r="F23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10029,7 +10582,7 @@
       </c>
       <c r="H23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10037,11 +10590,11 @@
       </c>
       <c r="J23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10049,35 +10602,35 @@
       </c>
       <c r="M23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O23" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A24" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="23">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="D24" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C24)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10085,7 +10638,7 @@
       </c>
       <c r="G24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10097,7 +10650,7 @@
       </c>
       <c r="J24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10105,11 +10658,11 @@
       </c>
       <c r="L24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10117,55 +10670,55 @@
       </c>
       <c r="O24" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C25" s="23">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D25" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C25)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10173,31 +10726,31 @@
       </c>
       <c r="N25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A26" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C26" s="23">
-        <v>1019</v>
+        <v>1038</v>
       </c>
       <c r="D26" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C26)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10205,55 +10758,55 @@
       </c>
       <c r="G26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O26" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C27" s="23">
-        <v>1033</v>
+        <v>1010</v>
       </c>
       <c r="D27" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C27)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10261,7 +10814,7 @@
       </c>
       <c r="F27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10269,19 +10822,19 @@
       </c>
       <c r="H27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10293,27 +10846,27 @@
       </c>
       <c r="N27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A28" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C28" s="23">
-        <v>1036</v>
+        <v>1004</v>
       </c>
       <c r="D28" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C28)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10321,19 +10874,19 @@
       </c>
       <c r="F28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10341,7 +10894,7 @@
       </c>
       <c r="K28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10349,27 +10902,27 @@
       </c>
       <c r="M28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C29" s="23">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D29" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C29)=1,"حاضر","غایب")</f>
@@ -10423,13 +10976,13 @@
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C30" s="23">
-        <v>1001</v>
+        <v>1024</v>
       </c>
       <c r="D30" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C30)=1,"حاضر","غایب")</f>
@@ -10483,13 +11036,13 @@
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C31" s="23">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="D31" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C31)=1,"حاضر","غایب")</f>
@@ -10543,33 +11096,33 @@
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A32" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C32" s="23">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D32" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C32)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10577,15 +11130,15 @@
       </c>
       <c r="J32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10593,7 +11146,7 @@
       </c>
       <c r="N32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O32" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
@@ -10603,17 +11156,17 @@
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C33" s="23">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D33" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C33)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10663,13 +11216,13 @@
     <row r="34" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C34" s="23">
-        <v>1038</v>
+        <v>1007</v>
       </c>
       <c r="D34" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C34)=1,"حاضر","غایب")</f>
@@ -10723,17 +11276,17 @@
     <row r="35" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A35" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C35" s="23">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D35" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C35)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E35" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C35)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C35,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10783,13 +11336,13 @@
     <row r="36" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A36" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C36" s="23">
-        <v>1015</v>
+        <v>1034</v>
       </c>
       <c r="D36" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C36)=1,"حاضر","غایب")</f>
@@ -10843,13 +11396,13 @@
     <row r="37" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A37" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C37" s="23">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="D37" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C37)=1,"حاضر","غایب")</f>
@@ -10903,13 +11456,13 @@
     <row r="38" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A38" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C38" s="23">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="D38" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C38)=1,"حاضر","غایب")</f>
@@ -10963,13 +11516,13 @@
     <row r="39" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A39" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="23">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="D39" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C39)=1,"حاضر","غایب")</f>
@@ -11023,17 +11576,17 @@
     <row r="40" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A40" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C40" s="23">
-        <v>1010</v>
+        <v>1041</v>
       </c>
       <c r="D40" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C40)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11041,35 +11594,35 @@
       </c>
       <c r="F40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C40)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C40,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11083,17 +11636,17 @@
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A41" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C41" s="23">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D41" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C41)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E41" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11113,7 +11666,7 @@
       </c>
       <c r="I41" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11137,31 +11690,31 @@
       </c>
       <c r="O41" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-3.3333333333333335</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A42" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C42" s="23">
-        <v>1006</v>
+        <v>1029</v>
       </c>
       <c r="D42" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C42)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11169,23 +11722,23 @@
       </c>
       <c r="H42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11193,11 +11746,11 @@
       </c>
       <c r="N42" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C42)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C42,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O42" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-13.333333333333334</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="16.8" x14ac:dyDescent="0.5">
@@ -11275,6 +11828,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:O42">
+    <sortCondition descending="1" ref="O2:O42"/>
+  </sortState>
   <conditionalFormatting sqref="D2:D42">
     <cfRule type="cellIs" dxfId="35" priority="60" operator="equal">
       <formula>"غایب"</formula>
